--- a/biology/Botanique/Tomate_noire/Tomate_noire.xlsx
+++ b/biology/Botanique/Tomate_noire/Tomate_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tomates noires sont un regroupement de variétés de tomates.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tomates de couleur noire sont connues depuis le XVIe siècle. Elles sont principalement originaires des pays comme la Russie, l'Ukraine, la Moldavie, la Crimée et la Sibérie.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des plants de tomates noires cultivés par les jardiniers amateurs ont une croissance indéterminée. C'est-à-dire qu'elles ont une pousse continue tout au long de l'année. Leurs couleurs foncées vont de chocolat à aubergine en passant par le brun-noir.
-La tomate "Kumato"[1], cas particulier de tomate noire breveté, est le nom commercial d'un cultivar hybride de tomate.
+La tomate "Kumato", cas particulier de tomate noire breveté, est le nom commercial d'un cultivar hybride de tomate.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Différentes variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Italienne noire
